--- a/Poster/all_no_summary_validation_ben.xlsx
+++ b/Poster/all_no_summary_validation_ben.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="all_no_summary_validation_ben" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -609,11 +609,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -764,7 +760,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667023" cy="6289408"/>
+    <xdr:ext cx="8659752" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
